--- a/Digital-Nurture-4.0-DotNetFSE-main/DN 4.0 - DotNet FSE Mandatory hands-on detail.xlsx
+++ b/Digital-Nurture-4.0-DotNetFSE-main/DN 4.0 - DotNet FSE Mandatory hands-on detail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/239914_cognizant_com/Documents/2025/Academy work/Digital Nurture/DN 4.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODEs\Cognizant_Digital-Nurture-4.0\Digital-Nurture-4.0-DotNetFSE-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{73808821-0A4C-4621-8DBD-D453917CF7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D1C2B52-CCC7-4FC0-88B3-86104BA759D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ECEDF9-3AD9-4043-AB61-F21FB207082E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E078EC40-2268-4F4F-B14B-9403122955B8}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,21 +809,21 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="45.453125" customWidth="1"/>
-    <col min="6" max="6" width="29.7265625" customWidth="1"/>
-    <col min="7" max="7" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="45.4140625" customWidth="1"/>
+    <col min="6" max="6" width="29.75" customWidth="1"/>
+    <col min="7" max="7" width="32.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -842,7 +842,7 @@
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="17"/>
       <c r="B2" s="15"/>
       <c r="C2" s="17"/>
@@ -859,7 +859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="28">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="28">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="28">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="28">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="28">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -958,7 +958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="28">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -981,7 +981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="28">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="28">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="28">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="28">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -1107,7 +1107,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="28">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="28">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="28">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="28">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="28">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="28">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="28">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="28">
       <c r="A22" s="3">
         <v>5</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="56">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="5">
         <v>6</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>6</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>6</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>6</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>6</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>7</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>7</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>7</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>7</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>8</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>8</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>8</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>8</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -1608,6 +1608,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c6f516c4-2602-422c-aa9a-755893ba4f98">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3c35e321-f73a-4dae-ae38-a0459de24735"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6E01E278A50734B8A721F01C1B19487" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="03d34044917dd15f7665c3faabfa0379">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="951c5514-b77c-4532-82d5-a05f2f7d58e2" xmlns:ns3="c6f516c4-2602-422c-aa9a-755893ba4f98" xmlns:ns4="3c35e321-f73a-4dae-ae38-a0459de24735" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6109835e45fae7978495c991aa49747" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
@@ -1867,42 +1887,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c6f516c4-2602-422c-aa9a-755893ba4f98">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3c35e321-f73a-4dae-ae38-a0459de24735"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{895DC2EA-9217-47D1-A436-27928D1C4E1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15F0F638-0648-46BA-B1DF-3E4F6ADB00E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
-    <ds:schemaRef ds:uri="c6f516c4-2602-422c-aa9a-755893ba4f98"/>
-    <ds:schemaRef ds:uri="3c35e321-f73a-4dae-ae38-a0459de24735"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1926,9 +1914,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15F0F638-0648-46BA-B1DF-3E4F6ADB00E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{895DC2EA-9217-47D1-A436-27928D1C4E1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
+    <ds:schemaRef ds:uri="c6f516c4-2602-422c-aa9a-755893ba4f98"/>
+    <ds:schemaRef ds:uri="3c35e321-f73a-4dae-ae38-a0459de24735"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>